--- a/Test-Case-OTT-Platform.xlsx
+++ b/Test-Case-OTT-Platform.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Sem5\SE\Project\Repo\OTT-Platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB8732-9253-4961-A028-18110BAAFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCaseTemplate" sheetId="1" r:id="rId4"/>
+    <sheet name="TestCaseTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t>Test Cases OTT Platform</t>
   </si>
@@ -493,34 +502,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -657,38 +653,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,25 +679,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -917,7 +959,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -935,7 +977,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1181,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1206,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,9 +1219,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1196,7 +1244,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1214,7 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,7 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,7 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,9 +1500,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1468,7 +1522,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1486,7 +1540,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,7 +1569,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1594,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1590,7 +1644,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1640,7 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1665,7 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1715,7 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1728,719 +1782,729 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="6">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="78.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="104.55" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:10" ht="104.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s" s="8">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="52.55" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s" s="8">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="8">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s" s="8">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="52.55" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s" s="8">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="52.55" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s" s="8">
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s" s="8">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="8">
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s" s="8">
+      <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="s" s="8">
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="52.55" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s" s="8">
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s" s="8">
+      <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s" s="8">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s" s="8">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s" s="8">
+      <c r="J8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" ht="52.55" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s" s="8">
+      <c r="D9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s" s="8">
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s" s="8">
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s" s="8">
+      <c r="H9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s" s="8">
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s" s="8">
+      <c r="J9" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" ht="52.55" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s" s="8">
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s" s="8">
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s" s="8">
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s" s="8">
+      <c r="G10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="8">
+      <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s" s="8">
+      <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s" s="8">
+      <c r="J10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" ht="65.55" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s" s="8">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s" s="8">
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s" s="8">
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s" s="8">
+      <c r="G11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s" s="8">
+      <c r="H11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I11" t="s" s="8">
+      <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s" s="8">
+      <c r="J11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="65.55" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s" s="8">
+      <c r="D12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="8">
+      <c r="E12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s" s="8">
+      <c r="F12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="8">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H12" t="s" s="8">
+      <c r="H12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I12" t="s" s="8">
+      <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s" s="8">
+      <c r="J12" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="52.55" customHeight="1">
-      <c r="A13" t="s" s="8">
+    <row r="13" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s" s="8">
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s" s="8">
+      <c r="E13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s" s="8">
+      <c r="F13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G13" t="s" s="8">
+      <c r="G13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H13" t="s" s="8">
+      <c r="H13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I13" t="s" s="8">
+      <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="s" s="8">
+      <c r="J13" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="65.55" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s" s="8">
+      <c r="D14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s" s="8">
+      <c r="E14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s" s="8">
+      <c r="F14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G14" t="s" s="8">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s" s="8">
+      <c r="H14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I14" t="s" s="8">
+      <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="s" s="8">
+      <c r="J14" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" ht="65.55" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s" s="8">
+      <c r="D15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s" s="8">
+      <c r="E15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F15" t="s" s="8">
+      <c r="F15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G15" t="s" s="8">
+      <c r="G15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s" s="8">
+      <c r="H15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I15" t="s" s="8">
+      <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="s" s="8">
+      <c r="J15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="65.55" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s" s="8">
+      <c r="D16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s" s="8">
+      <c r="E16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s" s="8">
+      <c r="F16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s" s="8">
+      <c r="G16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s" s="8">
+      <c r="H16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I16" t="s" s="8">
+      <c r="I16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="s" s="8">
+      <c r="J16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="65.55" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s" s="8">
+      <c r="D17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E17" t="s" s="8">
+      <c r="E17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F17" t="s" s="8">
+      <c r="F17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s" s="8">
+      <c r="G17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H17" t="s" s="8">
+      <c r="H17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s" s="8">
+      <c r="I17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="s" s="8">
+      <c r="J17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" ht="65.55" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D18" t="s" s="8">
+      <c r="D18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E18" t="s" s="8">
+      <c r="E18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F18" t="s" s="8">
+      <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" t="s" s="8">
+      <c r="G18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H18" t="s" s="8">
+      <c r="H18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I18" t="s" s="8">
+      <c r="I18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s" s="8">
+      <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="65.55" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s" s="8">
+      <c r="D19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s" s="8">
+      <c r="E19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s" s="8">
+      <c r="F19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G19" t="s" s="8">
+      <c r="G19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H19" t="s" s="8">
+      <c r="H19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I19" t="s" s="8">
+      <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J19" t="s" s="8">
+      <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="52.55" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s" s="8">
+      <c r="B20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s" s="8">
+      <c r="D20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E20" t="s" s="8">
+      <c r="E20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F20" t="s" s="8">
+      <c r="F20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s" s="8">
+      <c r="G20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H20" t="s" s="8">
+      <c r="H20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I20" t="s" s="8">
+      <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s" s="8">
+      <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="78.55" customHeight="1">
-      <c r="A21" t="s" s="8">
+    <row r="21" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D21" t="s" s="8">
+      <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s" s="8">
+      <c r="E21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F21" t="s" s="8">
+      <c r="F21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G21" t="s" s="8">
+      <c r="G21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H21" t="s" s="8">
+      <c r="H21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I21" t="s" s="8">
+      <c r="I21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="s" s="8">
+      <c r="J21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="65.55" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D22" t="s" s="8">
+      <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s" s="8">
+      <c r="E22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F22" t="s" s="8">
+      <c r="F22" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G22" t="s" s="8">
+      <c r="G22" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H22" t="s" s="8">
+      <c r="H22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I22" t="s" s="8">
+      <c r="I22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J22" t="s" s="8">
+      <c r="J22" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2449,7 +2513,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
